--- a/data/trans_orig/P53-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P53-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>2940</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7667</v>
+        <v>8153</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0974632787736771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02976823041281996</v>
+        <v>0.03068106781469879</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2541601929284048</v>
+        <v>0.2702930839069475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4158</v>
+        <v>3563</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02970693118159033</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1610780433143908</v>
+        <v>0.1380544355446739</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -785,19 +785,19 @@
         <v>3707</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8759</v>
+        <v>8454</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0662192808895791</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01817059312398672</v>
+        <v>0.01791047447801867</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1564692722573388</v>
+        <v>0.1510312780410088</v>
       </c>
     </row>
     <row r="5">
@@ -908,19 +908,19 @@
         <v>2805</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7318</v>
+        <v>7905</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09298795223633198</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02878824277869609</v>
+        <v>0.02906701342511257</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2426043240237327</v>
+        <v>0.2620660651740022</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -942,19 +942,19 @@
         <v>2805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7727</v>
+        <v>7733</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05010908573648138</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01568654613432732</v>
+        <v>0.01593913494138425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1380311134902968</v>
+        <v>0.1381536757150962</v>
       </c>
     </row>
     <row r="8">
@@ -971,19 +971,19 @@
         <v>24420</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19792</v>
+        <v>19593</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27513</v>
+        <v>27632</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.809548768989991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6561115905149969</v>
+        <v>0.6495307289873569</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9120861705676404</v>
+        <v>0.9160283060798624</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -992,7 +992,7 @@
         <v>25045</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21654</v>
+        <v>22249</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>25812</v>
@@ -1001,7 +1001,7 @@
         <v>0.9702930688184097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8389219566856088</v>
+        <v>0.8619455644553252</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>49465</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43593</v>
+        <v>43392</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53135</v>
+        <v>53011</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8836716333739395</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7787699930185252</v>
+        <v>0.7751777570501615</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9492321945783132</v>
+        <v>0.9470176061920653</v>
       </c>
     </row>
     <row r="9">
@@ -1117,19 +1117,19 @@
         <v>7845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3768</v>
+        <v>3702</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14505</v>
+        <v>14092</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04534539142215561</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02177737932620329</v>
+        <v>0.02139932037434098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08383780903758255</v>
+        <v>0.08145063973541071</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6234</v>
+        <v>5239</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005154019874509289</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03125442868338933</v>
+        <v>0.02626888635497286</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1159,19 +1159,19 @@
         <v>8873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4053</v>
+        <v>4029</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16028</v>
+        <v>15596</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02382312650346366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0108824341183199</v>
+        <v>0.01081650521460001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04303227630563205</v>
+        <v>0.04187289116570007</v>
       </c>
     </row>
     <row r="11">
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4398</v>
+        <v>4125</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005097645682255069</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02542104217323132</v>
+        <v>0.02384566058127207</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4425</v>
+        <v>5890</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.005102392649592941</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02218682191045803</v>
+        <v>0.02952977391978939</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6515</v>
+        <v>6825</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00510018765792477</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01749192702713886</v>
+        <v>0.01832564817753432</v>
       </c>
     </row>
     <row r="13">
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6599</v>
+        <v>4655</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005770415981579365</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03308561768589212</v>
+        <v>0.02333898616807986</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7427</v>
+        <v>4670</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003090026955148234</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01994117899434571</v>
+        <v>0.01253969685839385</v>
       </c>
     </row>
     <row r="14">
@@ -1369,19 +1369,19 @@
         <v>164280</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>157710</v>
+        <v>157243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>169014</v>
+        <v>169063</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9495569628955893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9115827084676785</v>
+        <v>0.9088810992148018</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9769174128133912</v>
+        <v>0.9772008249605698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>187</v>
@@ -1390,19 +1390,19 @@
         <v>196251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>190931</v>
+        <v>190945</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>198437</v>
+        <v>198441</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9839731714943184</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9572954202177438</v>
+        <v>0.9573680920888618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9949330007076715</v>
+        <v>0.9949521199047361</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>346</v>
@@ -1411,19 +1411,19 @@
         <v>360531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>352275</v>
+        <v>352836</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>365744</v>
+        <v>366380</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9679866588834634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9458187477766984</v>
+        <v>0.9473240599457987</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9819815016875986</v>
+        <v>0.9836893796786627</v>
       </c>
     </row>
     <row r="15">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6660</v>
+        <v>6290</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01229712607516832</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04423298719453763</v>
+        <v>0.04177568309080593</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4673</v>
+        <v>4987</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006939341106904062</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03401624917824468</v>
+        <v>0.0363057113590125</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1557,19 +1557,19 @@
         <v>2805</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7227</v>
+        <v>7560</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009740953157380583</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003030928304414568</v>
+        <v>0.003035111764381446</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02510020136903173</v>
+        <v>0.02625792322906025</v>
       </c>
     </row>
     <row r="17">
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4762</v>
+        <v>5272</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.006210962825954201</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03162697657703555</v>
+        <v>0.03501876187436581</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6755</v>
+        <v>7019</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01435949233780482</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04917404197621757</v>
+        <v>0.05109709094626633</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -1675,19 +1675,19 @@
         <v>2908</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7763</v>
+        <v>8077</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01009858627134503</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003211949842838301</v>
+        <v>0.003218461277345307</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02696051382834955</v>
+        <v>0.02805269701592921</v>
       </c>
     </row>
     <row r="19">
@@ -1704,19 +1704,19 @@
         <v>2919</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8161</v>
+        <v>8827</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01938946351356769</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005364448928180178</v>
+        <v>0.0052893814446675</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0542056757166639</v>
+        <v>0.05862984841227199</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6834</v>
+        <v>6894</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01325632010348593</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04974885732289003</v>
+        <v>0.050189217563607</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1746,19 +1746,19 @@
         <v>4740</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10428</v>
+        <v>10648</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01646337088786116</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006330215703919443</v>
+        <v>0.006347888218257385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0362164175393786</v>
+        <v>0.03698077426885275</v>
       </c>
     </row>
     <row r="20">
@@ -1775,19 +1775,19 @@
         <v>144850</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138701</v>
+        <v>138821</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148579</v>
+        <v>148403</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9621024475853098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9212595741161955</v>
+        <v>0.9220552739974626</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9868661983139878</v>
+        <v>0.9856998627316792</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>127</v>
@@ -1796,19 +1796,19 @@
         <v>132619</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126595</v>
+        <v>127118</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>135611</v>
+        <v>135621</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9654448464518052</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9215877823132798</v>
+        <v>0.9253984180688473</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9872212940111627</v>
+        <v>0.9872984320493216</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>264</v>
@@ -1817,19 +1817,19 @@
         <v>277470</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>269900</v>
+        <v>268892</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>282169</v>
+        <v>282265</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9636970896834133</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9374062897216945</v>
+        <v>0.9339068056503499</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9800198281980381</v>
+        <v>0.9803508145224729</v>
       </c>
     </row>
     <row r="21">
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8859</v>
+        <v>8010</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0707919656709718</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2337160225779545</v>
+        <v>0.2113162414855146</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9092</v>
+        <v>8977</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05201763981194533</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1762443447483422</v>
+        <v>0.1740198821363733</v>
       </c>
     </row>
     <row r="23">
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5289</v>
+        <v>4723</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02398367338252629</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1395414716475631</v>
+        <v>0.1245935094572495</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6040</v>
+        <v>4890</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09394689623854015</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4415219114606362</v>
+        <v>0.3574611119553421</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7113</v>
+        <v>7480</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04253821317524033</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1378982341973973</v>
+        <v>0.1450030187299991</v>
       </c>
     </row>
     <row r="24">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6665</v>
+        <v>6143</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05088793867556155</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1758398855081656</v>
+        <v>0.1620571780591753</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6243</v>
+        <v>6856</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03739224415805637</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1210324599228195</v>
+        <v>0.1329052064538926</v>
       </c>
     </row>
     <row r="25">
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7125</v>
+        <v>6986</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06061065342842214</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1879773710655649</v>
+        <v>0.1843010688451229</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4902</v>
+        <v>4089</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07136748667851679</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3583673451368239</v>
+        <v>0.2988741282699641</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2160,19 +2160,19 @@
         <v>3274</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>988</v>
+        <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8730</v>
+        <v>8710</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06346341066908311</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01915535811900385</v>
+        <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.169227823380689</v>
+        <v>0.1688404298809661</v>
       </c>
     </row>
     <row r="26">
@@ -2189,19 +2189,19 @@
         <v>30085</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23949</v>
+        <v>23803</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34508</v>
+        <v>34602</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7937257688425182</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6318458199370948</v>
+        <v>0.6279688188943693</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9103934318628036</v>
+        <v>0.9128917363283305</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2210,7 +2210,7 @@
         <v>11418</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6853</v>
+        <v>7427</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>13680</v>
@@ -2219,7 +2219,7 @@
         <v>0.8346856170829431</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5009573928239187</v>
+        <v>0.5428867284147788</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2231,19 +2231,19 @@
         <v>41505</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>34900</v>
+        <v>34731</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46532</v>
+        <v>47008</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8045884921856749</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6765490677322011</v>
+        <v>0.6732822903023368</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9020456155623909</v>
+        <v>0.9112803433334541</v>
       </c>
     </row>
     <row r="27">
@@ -2335,19 +2335,19 @@
         <v>2921</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7275</v>
+        <v>7464</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1197577508856451</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03580797196869507</v>
+        <v>0.03690912953319972</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2981966172406803</v>
+        <v>0.3059624856589054</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4061</v>
+        <v>4601</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1452119440366702</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5812331021130649</v>
+        <v>0.6585535641758322</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2377,19 +2377,19 @@
         <v>3936</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8637</v>
+        <v>8438</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1254248268819814</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0321956100234731</v>
+        <v>0.03227433791491681</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2752068305019025</v>
+        <v>0.2688701664533093</v>
       </c>
     </row>
     <row r="29">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4694</v>
+        <v>4939</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04069459449478097</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1924156870158425</v>
+        <v>0.2024690843887921</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5360</v>
+        <v>5562</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03163442282586581</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1708100223225636</v>
+        <v>0.1772406928824856</v>
       </c>
     </row>
     <row r="30">
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4747</v>
+        <v>5461</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04373767624160885</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1945686603168918</v>
+        <v>0.2238412684009571</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5633</v>
+        <v>5894</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03399999830015082</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1795137138483654</v>
+        <v>0.1878240383973117</v>
       </c>
     </row>
     <row r="31">
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7354</v>
+        <v>7548</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09921125219189081</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3014488729374094</v>
+        <v>0.3093998524249686</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7461</v>
+        <v>8453</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07712303660684929</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2377341350938823</v>
+        <v>0.2693513374393556</v>
       </c>
     </row>
     <row r="32">
@@ -2595,19 +2595,19 @@
         <v>16994</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12244</v>
+        <v>12289</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21251</v>
+        <v>21422</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6965987261860743</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5019195379369688</v>
+        <v>0.5037364535630787</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8711182112685465</v>
+        <v>0.8781231624063632</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2616,7 +2616,7 @@
         <v>5972</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2926</v>
+        <v>2386</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>6987</v>
@@ -2625,7 +2625,7 @@
         <v>0.8547880559633297</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4187668978869352</v>
+        <v>0.3414464358241707</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -2637,19 +2637,19 @@
         <v>22966</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>17541</v>
+        <v>17047</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>27198</v>
+        <v>27263</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7318177153851527</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5589506581598312</v>
+        <v>0.5432164599955512</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8666596325240059</v>
+        <v>0.8687609610511341</v>
       </c>
     </row>
     <row r="33">
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5505</v>
+        <v>5149</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1653038027165667</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5054485278499956</v>
+        <v>0.472748415601098</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3776</v>
+        <v>4205</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1375589101778988</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5793656242958737</v>
+        <v>0.6452888444939135</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3</v>
@@ -2924,19 +2924,19 @@
         <v>2697</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6724</v>
+        <v>6867</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1549170591449349</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04539124703375483</v>
+        <v>0.04404055821682552</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3862587448653519</v>
+        <v>0.3944756968246121</v>
       </c>
     </row>
     <row r="38">
@@ -2953,7 +2953,7 @@
         <v>9092</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5387</v>
+        <v>5743</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>10892</v>
@@ -2962,7 +2962,7 @@
         <v>0.8346961972834334</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4945514721500053</v>
+        <v>0.5272515843988992</v>
       </c>
       <c r="I38" s="6" t="n">
         <v>1</v>
@@ -2974,7 +2974,7 @@
         <v>5621</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2741</v>
+        <v>2312</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>6517</v>
@@ -2983,7 +2983,7 @@
         <v>0.8624410898221012</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4206343757041263</v>
+        <v>0.3547111555060778</v>
       </c>
       <c r="P38" s="6" t="n">
         <v>1</v>
@@ -2995,19 +2995,19 @@
         <v>14712</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10685</v>
+        <v>10542</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>16619</v>
+        <v>16642</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8450829408550651</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6137412551346481</v>
+        <v>0.6055243031753879</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9546087529662451</v>
+        <v>0.9559594417831744</v>
       </c>
     </row>
     <row r="39">
@@ -3409,19 +3409,19 @@
         <v>18241</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>10807</v>
+        <v>10944</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>28791</v>
+        <v>28383</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04263634958417344</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02526069039352937</v>
+        <v>0.02557923136816263</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.06729423100999141</v>
+        <v>0.06634166429514061</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -3430,19 +3430,19 @@
         <v>3763</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>960</v>
+        <v>1003</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>9340</v>
+        <v>9355</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.009622083475346505</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00245621816601647</v>
+        <v>0.002564898452185522</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02388568651877737</v>
+        <v>0.02392415679161994</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>22</v>
@@ -3451,19 +3451,19 @@
         <v>22004</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>14391</v>
+        <v>13794</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>32192</v>
+        <v>32306</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02687103572494355</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01757402682049274</v>
+        <v>0.01684525971861275</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03931233751170835</v>
+        <v>0.03945248900228519</v>
       </c>
     </row>
     <row r="47">
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>6527</v>
+        <v>6485</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.004445257510648113</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01525644763463351</v>
+        <v>0.01515869927901302</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>6465</v>
+        <v>7200</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.003286756448569371</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01653215873805865</v>
+        <v>0.01841190937716718</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3</v>
@@ -3522,19 +3522,19 @@
         <v>3187</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>8500</v>
+        <v>8257</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.003892038099690518</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.001111742739492658</v>
+        <v>0.001109908778836072</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01038014694765667</v>
+        <v>0.01008284666779719</v>
       </c>
     </row>
     <row r="48">
@@ -3551,19 +3551,19 @@
         <v>4813</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1819</v>
+        <v>1889</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11390</v>
+        <v>10354</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01124940519024679</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.004250748284455069</v>
+        <v>0.004414756723725605</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02662260305944241</v>
+        <v>0.02420168198313975</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>3</v>
@@ -3572,19 +3572,19 @@
         <v>2990</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>7910</v>
+        <v>7778</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.007646811451527528</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.00241162860233525</v>
+        <v>0.002428629393244282</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02022953677498817</v>
+        <v>0.01989199192686622</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>8</v>
@@ -3593,19 +3593,19 @@
         <v>7803</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3826</v>
+        <v>3866</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>15377</v>
+        <v>15991</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.00952905736209924</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.004671808903663253</v>
+        <v>0.004721253113283992</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01877864651875359</v>
+        <v>0.01952779803662145</v>
       </c>
     </row>
     <row r="49">
@@ -3622,19 +3622,19 @@
         <v>13157</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>7429</v>
+        <v>7331</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>21909</v>
+        <v>22538</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.03075341540850364</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01736390157547432</v>
+        <v>0.01713517969702561</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.05120866548473287</v>
+        <v>0.05267875915594014</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>6</v>
@@ -3643,19 +3643,19 @@
         <v>6069</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>2234</v>
+        <v>2160</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>11546</v>
+        <v>12952</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01551920262511947</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.005712039391723565</v>
+        <v>0.005524766305768996</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02952759829169764</v>
+        <v>0.03312314189413363</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>19</v>
@@ -3664,19 +3664,19 @@
         <v>19226</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>11526</v>
+        <v>11991</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>29892</v>
+        <v>29101</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02347861653408222</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01407572371918719</v>
+        <v>0.01464336585594733</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03650461006676435</v>
+        <v>0.0355384284875187</v>
       </c>
     </row>
     <row r="50">
@@ -3693,19 +3693,19 @@
         <v>389721</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>376101</v>
+        <v>377527</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>399247</v>
+        <v>400399</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9109155723064281</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8790814389320516</v>
+        <v>0.8824142225818374</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9331830465911334</v>
+        <v>0.9358754007330842</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>364</v>
@@ -3714,19 +3714,19 @@
         <v>376928</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>368454</v>
+        <v>367354</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>383074</v>
+        <v>383162</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9639251459994371</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.9422542533286067</v>
+        <v>0.9394391592206399</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9796410177525361</v>
+        <v>0.9798663696971841</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>736</v>
@@ -3735,19 +3735,19 @@
         <v>766649</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>751194</v>
+        <v>750751</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>778651</v>
+        <v>779012</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9362292522791845</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.9173556518273327</v>
+        <v>0.9168150397266499</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9508859577311636</v>
+        <v>0.9513269449957021</v>
       </c>
     </row>
     <row r="51">
@@ -4082,19 +4082,19 @@
         <v>13190</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7462</v>
+        <v>7502</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20964</v>
+        <v>21484</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1479296065031604</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08368577034292055</v>
+        <v>0.08414080058941639</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2351214505246692</v>
+        <v>0.2409492863422796</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4103,19 +4103,19 @@
         <v>10838</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5910</v>
+        <v>5849</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18079</v>
+        <v>18138</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1194609316275796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06513972732423852</v>
+        <v>0.06446706023153141</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1992615993545179</v>
+        <v>0.1999120619619682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -4124,19 +4124,19 @@
         <v>24028</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16228</v>
+        <v>16154</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34644</v>
+        <v>34547</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1335713483253471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09021027265999079</v>
+        <v>0.08979962807566572</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1925833624922265</v>
+        <v>0.1920445755046158</v>
       </c>
     </row>
     <row r="5">
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5247</v>
+        <v>4774</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01070327627905895</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05884347194726647</v>
+        <v>0.05353934050935143</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5306</v>
+        <v>5880</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01297322719888783</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05848307504285083</v>
+        <v>0.06480670816777909</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7338</v>
+        <v>7097</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01184813256409188</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04078955325778826</v>
+        <v>0.03945069150758908</v>
       </c>
     </row>
     <row r="6">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6057</v>
+        <v>5993</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01834311285480012</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06793156631671664</v>
+        <v>0.06721742664836984</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5072</v>
+        <v>5050</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0110795684792514</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05590779936673577</v>
+        <v>0.05565747072212269</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -4266,19 +4266,19 @@
         <v>2641</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7197</v>
+        <v>7550</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01467972332627698</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004097716961697727</v>
+        <v>0.00412057385894408</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04000960405702569</v>
+        <v>0.04196763742602606</v>
       </c>
     </row>
     <row r="7">
@@ -4342,19 +4342,19 @@
         <v>73382</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63859</v>
+        <v>64480</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79721</v>
+        <v>79893</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8230240043629805</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7162164492879926</v>
+        <v>0.7231829423724471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8941166074538741</v>
+        <v>0.8960474802002709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -4363,19 +4363,19 @@
         <v>77707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>70105</v>
+        <v>70340</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83121</v>
+        <v>82905</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8564862726942812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7726965833370496</v>
+        <v>0.7752833838089295</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9161542421220967</v>
+        <v>0.9137760823942045</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>148</v>
@@ -4384,19 +4384,19 @@
         <v>151089</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>140437</v>
+        <v>140924</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>159288</v>
+        <v>160889</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8399007957842841</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7806842745982978</v>
+        <v>0.7833940055224865</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8854772666743015</v>
+        <v>0.894379582535176</v>
       </c>
     </row>
     <row r="9">
@@ -4488,19 +4488,19 @@
         <v>15317</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9303</v>
+        <v>9153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24104</v>
+        <v>25231</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05008726451817359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03042092805059273</v>
+        <v>0.02993257353929342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0788243328005179</v>
+        <v>0.08250701651897886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4509,19 +4509,19 @@
         <v>6138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2142</v>
+        <v>2857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12448</v>
+        <v>13159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01926773534434554</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006723629793957203</v>
+        <v>0.00896875706629513</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0390737252157666</v>
+        <v>0.04130341777620333</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -4530,19 +4530,19 @@
         <v>21455</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13525</v>
+        <v>13772</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31974</v>
+        <v>31853</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03436200988176234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02166178126512837</v>
+        <v>0.02205648734265372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05120881776317351</v>
+        <v>0.05101527357607508</v>
       </c>
     </row>
     <row r="11">
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5836</v>
+        <v>5018</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00328139075921254</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01908330748162073</v>
+        <v>0.01640955859603906</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -4580,19 +4580,19 @@
         <v>3265</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9177</v>
+        <v>7898</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01024757665067079</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003051796380446494</v>
+        <v>0.003003254628580782</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02880431081944508</v>
+        <v>0.02479049758953508</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -4601,19 +4601,19 @@
         <v>4268</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10748</v>
+        <v>11339</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006835794409245654</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001800973933659129</v>
+        <v>0.001812787769731797</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01721355872121879</v>
+        <v>0.01816018867634701</v>
       </c>
     </row>
     <row r="12">
@@ -4690,19 +4690,19 @@
         <v>2840</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7013</v>
+        <v>8303</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008913903132685688</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002789015088172517</v>
+        <v>0.00278131895581297</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02201231668921079</v>
+        <v>0.0260637276103478</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -4714,16 +4714,16 @@
         <v>891</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8245</v>
+        <v>8140</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004548200453523527</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001427254158642298</v>
+        <v>0.001426240927199041</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01320571292660114</v>
+        <v>0.01303742262229627</v>
       </c>
     </row>
     <row r="14">
@@ -4740,19 +4740,19 @@
         <v>289479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>280535</v>
+        <v>279757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>296092</v>
+        <v>296089</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9466313447226139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9173851922594416</v>
+        <v>0.9148384520337811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9682557562871317</v>
+        <v>0.9682475932043142</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>290</v>
@@ -4761,19 +4761,19 @@
         <v>306339</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>298096</v>
+        <v>296895</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>311693</v>
+        <v>311671</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.961570784872298</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9356972773040506</v>
+        <v>0.9319250076861081</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9783769477798965</v>
+        <v>0.9783065535658229</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>572</v>
@@ -4782,19 +4782,19 @@
         <v>595818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>583914</v>
+        <v>584488</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>604635</v>
+        <v>604911</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9542539952554685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9351892470031783</v>
+        <v>0.9361072372845824</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9683747190770505</v>
+        <v>0.9688166712810377</v>
       </c>
     </row>
     <row r="15">
@@ -4886,19 +4886,19 @@
         <v>10815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4989</v>
+        <v>5842</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20567</v>
+        <v>19924</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02676709924248382</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01234704450932457</v>
+        <v>0.01445895250582693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05090445031159341</v>
+        <v>0.04931313852417091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -4907,19 +4907,19 @@
         <v>19703</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12090</v>
+        <v>11861</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30014</v>
+        <v>30096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05390907205500185</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03308046184121244</v>
+        <v>0.03245377811090786</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08212155387517445</v>
+        <v>0.08234666888487155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -4928,19 +4928,19 @@
         <v>30518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21414</v>
+        <v>20614</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44594</v>
+        <v>42762</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03965818003666957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02782838731884519</v>
+        <v>0.02678854820894413</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05795066270814197</v>
+        <v>0.05556974389417344</v>
       </c>
     </row>
     <row r="17">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4178</v>
+        <v>5483</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002319144625940316</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01034193162813415</v>
+        <v>0.01357105932480254</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5383</v>
+        <v>5254</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002650682320698804</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01472731464291621</v>
+        <v>0.01437508537780533</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6719</v>
+        <v>5812</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.002476608463921858</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008731423777149062</v>
+        <v>0.007552305288127248</v>
       </c>
     </row>
     <row r="18">
@@ -5028,19 +5028,19 @@
         <v>2819</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7681</v>
+        <v>8336</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.006976076897655535</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002281084192839345</v>
+        <v>0.002290959249894572</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01901028089076949</v>
+        <v>0.02063165902339347</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -5049,19 +5049,19 @@
         <v>3613</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10540</v>
+        <v>9760</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.009884795862169808</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003173286048216196</v>
+        <v>0.003155302717598807</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02883817669394241</v>
+        <v>0.02670524147757463</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -5070,19 +5070,19 @@
         <v>6431</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2304</v>
+        <v>2440</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13356</v>
+        <v>13578</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.008357573056322388</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.00299374594338498</v>
+        <v>0.003170199604722743</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01735575923409482</v>
+        <v>0.01764534739476393</v>
       </c>
     </row>
     <row r="19">
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6750</v>
+        <v>7113</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005875922665635354</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01846953665643243</v>
+        <v>0.0194626115522188</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7250</v>
+        <v>8220</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002790769644723751</v>
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009421276768949346</v>
+        <v>0.01068256869362971</v>
       </c>
     </row>
     <row r="20">
@@ -5162,19 +5162,19 @@
         <v>389464</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>380048</v>
+        <v>380246</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>396062</v>
+        <v>395377</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9639376792339204</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9406330560009654</v>
+        <v>0.9411237071615757</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9802693569768971</v>
+        <v>0.9785730410258889</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>318</v>
@@ -5183,19 +5183,19 @@
         <v>339049</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>327451</v>
+        <v>328047</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>348102</v>
+        <v>348399</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9276795270964941</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8959464440354883</v>
+        <v>0.8975749652689253</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9524500285521017</v>
+        <v>0.9532608833879138</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>688</v>
@@ -5204,19 +5204,19 @@
         <v>728513</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>714544</v>
+        <v>715185</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>739809</v>
+        <v>739608</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9467168687983625</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9285639693626999</v>
+        <v>0.9293967876046291</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9613971125570793</v>
+        <v>0.9611349379774844</v>
       </c>
     </row>
     <row r="21">
@@ -5308,19 +5308,19 @@
         <v>19165</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11676</v>
+        <v>11108</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30211</v>
+        <v>31386</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09097789994101414</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05542529888216719</v>
+        <v>0.05273285372198416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1434172846945326</v>
+        <v>0.1489949106485337</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -5329,19 +5329,19 @@
         <v>10552</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5227</v>
+        <v>5165</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18965</v>
+        <v>19672</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06524889538627975</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03231895161114449</v>
+        <v>0.0319339022136803</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1172691408252007</v>
+        <v>0.1216390905811254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -5350,19 +5350,19 @@
         <v>29717</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20837</v>
+        <v>19542</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42823</v>
+        <v>42375</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07980367898442953</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05595528325592768</v>
+        <v>0.05247797138197938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1149994255065244</v>
+        <v>0.1137944906757288</v>
       </c>
     </row>
     <row r="23">
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6900</v>
+        <v>7809</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01025989354159095</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03275377614575099</v>
+        <v>0.03707141242951545</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7435</v>
+        <v>7922</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00580397620592875</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01996620668442041</v>
+        <v>0.02127438058092207</v>
       </c>
     </row>
     <row r="24">
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4730</v>
+        <v>6186</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.007109416274382588</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02924824487539648</v>
+        <v>0.0382484987750239</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5049</v>
+        <v>5758</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.003087651065290494</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0135589581208551</v>
+        <v>0.01546308537397707</v>
       </c>
     </row>
     <row r="25">
@@ -5505,19 +5505,19 @@
         <v>4188</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9474</v>
+        <v>10636</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0198794103228605</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004972821200782075</v>
+        <v>0.005005084195514879</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0449765912286886</v>
+        <v>0.05049035906433677</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5309</v>
+        <v>5709</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006470806379831237</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03282707800119709</v>
+        <v>0.03529777804868032</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -5547,19 +5547,19 @@
         <v>5234</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10729</v>
+        <v>11609</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01405599407447827</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005503471085071617</v>
+        <v>0.005512473853971574</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02881163007265285</v>
+        <v>0.03117464636955135</v>
       </c>
     </row>
     <row r="26">
@@ -5576,19 +5576,19 @@
         <v>185139</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>174260</v>
+        <v>172738</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>194150</v>
+        <v>194128</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8788827961945344</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8272394970165531</v>
+        <v>0.8200134969828162</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.921657725472077</v>
+        <v>0.9215534850737145</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>127</v>
@@ -5597,19 +5597,19 @@
         <v>148976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>139942</v>
+        <v>139704</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>155235</v>
+        <v>155317</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9211708819595065</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8653075289688356</v>
+        <v>0.8638398492972235</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9598718165767515</v>
+        <v>0.9603786682912532</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>295</v>
@@ -5618,19 +5618,19 @@
         <v>334116</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>318851</v>
+        <v>319719</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>344676</v>
+        <v>345729</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.897248699669873</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8562565662203704</v>
+        <v>0.8585860517711664</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9256066171893914</v>
+        <v>0.9284350586312365</v>
       </c>
     </row>
     <row r="27">
@@ -5722,19 +5722,19 @@
         <v>8572</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3310</v>
+        <v>3279</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17286</v>
+        <v>17829</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06566246277783386</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02535486241142569</v>
+        <v>0.02511502390141355</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1324135221968926</v>
+        <v>0.1365722749567355</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -5743,19 +5743,19 @@
         <v>13127</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7105</v>
+        <v>7314</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21080</v>
+        <v>21781</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2025408767240647</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1096291163104293</v>
+        <v>0.1128506607961158</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3252459654201528</v>
+        <v>0.3360615160039496</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -5764,19 +5764,19 @@
         <v>21699</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13272</v>
+        <v>13468</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32937</v>
+        <v>34260</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1110741252856238</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06793595888477644</v>
+        <v>0.06893893392375308</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1685975798062791</v>
+        <v>0.1753705648224349</v>
       </c>
     </row>
     <row r="29">
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5128</v>
+        <v>5598</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007892900216682132</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03928115368410767</v>
+        <v>0.04288491606244836</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6263</v>
+        <v>5911</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01580467390873972</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09662866547192407</v>
+        <v>0.09120423383476789</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6124</v>
+        <v>6302</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01051776111609953</v>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03134817088043147</v>
+        <v>0.03225686668478819</v>
       </c>
     </row>
     <row r="30">
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7538</v>
+        <v>6580</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008452499529132807</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05774515375465029</v>
+        <v>0.05040161726805332</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5550</v>
+        <v>5564</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005648243950053586</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02840837050038335</v>
+        <v>0.02848287908630202</v>
       </c>
     </row>
     <row r="31">
@@ -5927,19 +5927,19 @@
         <v>5438</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2054</v>
+        <v>1162</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14251</v>
+        <v>14980</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04165794830647805</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01573378579855053</v>
+        <v>0.008897499815835264</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1091682369097883</v>
+        <v>0.1147477813823102</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4940</v>
+        <v>5323</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01601758733249036</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07621939375173399</v>
+        <v>0.082132018568171</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -5969,19 +5969,19 @@
         <v>6476</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2254</v>
+        <v>2184</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15878</v>
+        <v>15417</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0331513373255382</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01153625492379409</v>
+        <v>0.01117884434003897</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08127666981785664</v>
+        <v>0.07891588486241964</v>
       </c>
     </row>
     <row r="32">
@@ -5998,19 +5998,19 @@
         <v>114399</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>104332</v>
+        <v>103755</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>121097</v>
+        <v>121799</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8763341891698732</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7992189093731845</v>
+        <v>0.7947938569879905</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9276412187204655</v>
+        <v>0.9330177299670219</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>44</v>
@@ -6019,19 +6019,19 @@
         <v>49622</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>41404</v>
+        <v>40593</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55660</v>
+        <v>55522</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7656368620347053</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6388310841793037</v>
+        <v>0.6263189133386917</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8587857839986478</v>
+        <v>0.8566626651579886</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>150</v>
@@ -6040,19 +6040,19 @@
         <v>164023</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>151065</v>
+        <v>151771</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>173500</v>
+        <v>174171</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8396085323226848</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.77328029725511</v>
+        <v>0.7768964650459645</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8881211429259777</v>
+        <v>0.8915567791691501</v>
       </c>
     </row>
     <row r="33">
@@ -6144,19 +6144,19 @@
         <v>10166</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5073</v>
+        <v>5177</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17568</v>
+        <v>16995</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.151546613583733</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07562208030801217</v>
+        <v>0.07718064568286923</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2618901666772434</v>
+        <v>0.2533529905004896</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -6165,19 +6165,19 @@
         <v>6913</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2970</v>
+        <v>2991</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11789</v>
+        <v>12296</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.242601561385376</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1042156092753518</v>
+        <v>0.1049554377777203</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4137086779067252</v>
+        <v>0.431473834215175</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>17</v>
@@ -6186,19 +6186,19 @@
         <v>17079</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10557</v>
+        <v>10493</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>25867</v>
+        <v>24669</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1786949145109248</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1104528944312805</v>
+        <v>0.1097874693724444</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2706345792562712</v>
+        <v>0.25810470822637</v>
       </c>
     </row>
     <row r="35">
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4550</v>
+        <v>4875</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01426610165669021</v>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06782693353551834</v>
+        <v>0.07266924912436304</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4893</v>
+        <v>4849</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01001262142102589</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05119309682957154</v>
+        <v>0.05073213269943562</v>
       </c>
     </row>
     <row r="37">
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>11563</v>
+        <v>12232</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04661720362279298</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1723746420994364</v>
+        <v>0.1823487795266054</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>13097</v>
+        <v>10061</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03271814703234022</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1370291212879989</v>
+        <v>0.1052603724381132</v>
       </c>
     </row>
     <row r="38">
@@ -6388,19 +6388,19 @@
         <v>52832</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44396</v>
+        <v>44682</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>59119</v>
+        <v>58877</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7875700811367838</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6618214820377478</v>
+        <v>0.6660854356900694</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8812990207713166</v>
+        <v>0.8776832971284357</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>20</v>
@@ -6409,19 +6409,19 @@
         <v>21584</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>16708</v>
+        <v>16201</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>25527</v>
+        <v>25506</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.757398438614624</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5862913220932749</v>
+        <v>0.5685261657848255</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8957843907246482</v>
+        <v>0.8950445622222797</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>68</v>
@@ -6430,19 +6430,19 @@
         <v>74415</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>65402</v>
+        <v>65159</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>81299</v>
+        <v>82012</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7785743170357091</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.684267838920798</v>
+        <v>0.6817279841394349</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8505940393359641</v>
+        <v>0.8580498680785105</v>
       </c>
     </row>
     <row r="39">
@@ -6534,19 +6534,19 @@
         <v>3133</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7307</v>
+        <v>8285</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1631942049865101</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05248268763838963</v>
+        <v>0.05349994080334913</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3805417380681665</v>
+        <v>0.4314803660048704</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>10</v>
@@ -6555,19 +6555,19 @@
         <v>11258</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>6543</v>
+        <v>6772</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>15850</v>
+        <v>15911</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4999624164425898</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2905936549995671</v>
+        <v>0.3007634996758362</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.7039264221865822</v>
+        <v>0.7066255778176983</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>13</v>
@@ -6576,19 +6576,19 @@
         <v>14391</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8659</v>
+        <v>8607</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>21049</v>
+        <v>21872</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3449619961423315</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.207564076620284</v>
+        <v>0.2063297630744563</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5045712662435349</v>
+        <v>0.524301972992856</v>
       </c>
     </row>
     <row r="41">
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7336</v>
+        <v>6490</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1116458894750987</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3820431813406654</v>
+        <v>0.3379961699798468</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>7557</v>
+        <v>7586</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05138596579117254</v>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1811421507292008</v>
+        <v>0.1818500658013955</v>
       </c>
     </row>
     <row r="44">
@@ -6762,19 +6762,19 @@
         <v>13924</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9645</v>
+        <v>8517</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>17123</v>
+        <v>17116</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7251599055383913</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5023134368003515</v>
+        <v>0.4435541550180713</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8917605090658308</v>
+        <v>0.8913878287132926</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>10</v>
@@ -6783,19 +6783,19 @@
         <v>11259</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6667</v>
+        <v>6606</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>15974</v>
+        <v>15745</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5000375835574102</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2960735778134178</v>
+        <v>0.2933744221823016</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.709406345000433</v>
+        <v>0.6992365003241638</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>23</v>
@@ -6804,19 +6804,19 @@
         <v>25183</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>17863</v>
+        <v>18551</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>31001</v>
+        <v>31557</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6036520380664959</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4282010227484501</v>
+        <v>0.4446831994698763</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.743130740813612</v>
+        <v>0.7564486248389964</v>
       </c>
     </row>
     <row r="45">
@@ -6908,19 +6908,19 @@
         <v>80357</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>64898</v>
+        <v>61612</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>101978</v>
+        <v>98556</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.06551884273136085</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05291398600658467</v>
+        <v>0.05023520865969034</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.08314767274659181</v>
+        <v>0.08035732838446691</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>73</v>
@@ -6929,19 +6929,19 @@
         <v>78530</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>60899</v>
+        <v>62718</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>97282</v>
+        <v>95829</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07462396305842318</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05786953161475257</v>
+        <v>0.05959807051444795</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09244330158874044</v>
+        <v>0.09106208879368921</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>148</v>
@@ -6950,19 +6950,19 @@
         <v>158887</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>136528</v>
+        <v>134824</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>190099</v>
+        <v>183714</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.06972353022682017</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0599117112771676</v>
+        <v>0.05916403336359499</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08341999248367915</v>
+        <v>0.08061840884123092</v>
       </c>
     </row>
     <row r="47">
@@ -6979,19 +6979,19 @@
         <v>6086</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2899</v>
+        <v>2079</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>11515</v>
+        <v>13170</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.004962538580359825</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.002363995064791723</v>
+        <v>0.001695122846649928</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.009388404642668871</v>
+        <v>0.01073829887625942</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -7000,19 +7000,19 @@
         <v>6435</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2135</v>
+        <v>2262</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>13117</v>
+        <v>13420</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.006114778346925754</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002028679379643213</v>
+        <v>0.002149467370627529</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01246480233379095</v>
+        <v>0.0127524252756719</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>12</v>
@@ -7021,19 +7021,19 @@
         <v>12521</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6958</v>
+        <v>6519</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>21170</v>
+        <v>20704</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.005494635682234573</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.003053485391927069</v>
+        <v>0.002860663638163225</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.009289773011091238</v>
+        <v>0.009085407642575366</v>
       </c>
     </row>
     <row r="48">
@@ -7050,19 +7050,19 @@
         <v>6514</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2707</v>
+        <v>2768</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>12039</v>
+        <v>12878</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.00531156100883426</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.002206959507577874</v>
+        <v>0.002257247738734132</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.009815606715071376</v>
+        <v>0.01049995915500675</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>5</v>
@@ -7071,19 +7071,19 @@
         <v>5768</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2279</v>
+        <v>2165</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>12936</v>
+        <v>12975</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.005480823211963743</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.002166080119009281</v>
+        <v>0.0020569756656517</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.01229242571301678</v>
+        <v>0.01232933620980506</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>12</v>
@@ -7092,19 +7092,19 @@
         <v>12282</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>6392</v>
+        <v>6678</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>21037</v>
+        <v>20842</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.005389725233291253</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.002805064595597091</v>
+        <v>0.002930262753035009</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.00923161742515782</v>
+        <v>0.009146008135811253</v>
       </c>
     </row>
     <row r="49">
@@ -7121,19 +7121,19 @@
         <v>14897</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>8048</v>
+        <v>7478</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>27029</v>
+        <v>26676</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01214593269689875</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.006562201081806583</v>
+        <v>0.006096958767423942</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02203811504310921</v>
+        <v>0.02175013808866134</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>7</v>
@@ -7142,19 +7142,19 @@
         <v>7072</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>3047</v>
+        <v>2970</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>14202</v>
+        <v>13692</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.006720228265837775</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.002895750168425755</v>
+        <v>0.002821865877333055</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01349541315744279</v>
+        <v>0.01301052988888111</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>19</v>
@@ -7163,19 +7163,19 @@
         <v>21969</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>13614</v>
+        <v>13437</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>34014</v>
+        <v>35215</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.009640376399357675</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.005974228803527918</v>
+        <v>0.005896655939535637</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01492638199066482</v>
+        <v>0.01545316967601476</v>
       </c>
     </row>
     <row r="50">
@@ -7192,19 +7192,19 @@
         <v>1118618</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1096109</v>
+        <v>1095885</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1138239</v>
+        <v>1137873</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9120611249825463</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.893708119603464</v>
+        <v>0.8935253465813056</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9280589205333239</v>
+        <v>0.9277600359724718</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>884</v>
@@ -7213,19 +7213,19 @@
         <v>954538</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>934786</v>
+        <v>933661</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>974824</v>
+        <v>972901</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9070602071168495</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8882904087192327</v>
+        <v>0.887221625131665</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9263364589341812</v>
+        <v>0.9245092298648576</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1944</v>
@@ -7234,19 +7234,19 @@
         <v>2073156</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2042317</v>
+        <v>2045050</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2099850</v>
+        <v>2099836</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9097517324582963</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8962189898723224</v>
+        <v>0.8974181633475883</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9214656095221627</v>
+        <v>0.9214594224951131</v>
       </c>
     </row>
     <row r="51">
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6310</v>
+        <v>5666</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02610358539307616</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09232075285824093</v>
+        <v>0.08289890688232604</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5509</v>
+        <v>6261</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01450253717496995</v>
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04477760111895125</v>
+        <v>0.05089221059252299</v>
       </c>
     </row>
     <row r="5">
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5461</v>
+        <v>4972</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01463821269184325</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0798955944817383</v>
+        <v>0.07274185319511965</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5915</v>
+        <v>5042</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008132646168785793</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04807821831181451</v>
+        <v>0.04098062146203269</v>
       </c>
     </row>
     <row r="6">
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4817</v>
+        <v>4571</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02002176058700347</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08810636791951394</v>
+        <v>0.08360322677414755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6075</v>
+        <v>5814</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02773011369665518</v>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0888798603019474</v>
+        <v>0.08506205181951051</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -7796,19 +7796,19 @@
         <v>2990</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8157</v>
+        <v>9051</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0243043400046252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007636334420183841</v>
+        <v>0.007641695529138398</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0663010716387034</v>
+        <v>0.07356990072626876</v>
       </c>
     </row>
     <row r="8">
@@ -7825,7 +7825,7 @@
         <v>53580</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>49858</v>
+        <v>50104</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>54675</v>
@@ -7834,7 +7834,7 @@
         <v>0.9799782394129966</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9118936320804857</v>
+        <v>0.91639677322585</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -7846,19 +7846,19 @@
         <v>63670</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58585</v>
+        <v>58796</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66613</v>
+        <v>66627</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9315280882184254</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.857130769175512</v>
+        <v>0.8602229295200394</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9745820406671473</v>
+        <v>0.9747949526455023</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>111</v>
@@ -7867,19 +7867,19 @@
         <v>117250</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>111835</v>
+        <v>111471</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>121025</v>
+        <v>121005</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9530604766516191</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9090435347667166</v>
+        <v>0.9060818155582673</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9837398645044007</v>
+        <v>0.9835825737437239</v>
       </c>
     </row>
     <row r="9">
@@ -7971,19 +7971,19 @@
         <v>3758</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9397</v>
+        <v>8672</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01687764557542127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004236431324191385</v>
+        <v>0.004274509577330231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04220594658458811</v>
+        <v>0.03894903641842071</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6997</v>
+        <v>6677</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008355341184572811</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02942579179214639</v>
+        <v>0.028078722189216</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -8013,19 +8013,19 @@
         <v>5745</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12414</v>
+        <v>11532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01247648111365272</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004273661015267199</v>
+        <v>0.004267765686612713</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02696110639410157</v>
+        <v>0.02504618837289406</v>
       </c>
     </row>
     <row r="11">
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5001</v>
+        <v>5997</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00473995025385325</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02245848822628882</v>
+        <v>0.02693305159481211</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6247</v>
+        <v>5281</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00229210285823437</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01356764448714584</v>
+        <v>0.01146948538288463</v>
       </c>
     </row>
     <row r="12">
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5366</v>
+        <v>5911</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.00473995025385325</v>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02409841904944157</v>
+        <v>0.02654900166727209</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5967</v>
+        <v>6015</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00229210285823437</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0129599480356035</v>
+        <v>0.01306268868501684</v>
       </c>
     </row>
     <row r="13">
@@ -8168,19 +8168,19 @@
         <v>5154</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1418</v>
+        <v>1057</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13049</v>
+        <v>12404</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02314802888670795</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006366634757897695</v>
+        <v>0.004745333877624194</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05860504005172153</v>
+        <v>0.05570863579335888</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6696</v>
+        <v>5896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008049067144290061</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02815783439752909</v>
+        <v>0.02479629823549419</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -8210,19 +8210,19 @@
         <v>7068</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2803</v>
+        <v>2922</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14607</v>
+        <v>16587</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01535048836448815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006087482029505286</v>
+        <v>0.00634714646106666</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03172299798312675</v>
+        <v>0.03602366064697104</v>
       </c>
     </row>
     <row r="14">
@@ -8239,19 +8239,19 @@
         <v>211633</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>203657</v>
+        <v>202355</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>217181</v>
+        <v>216822</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9504944250301642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9146695439914471</v>
+        <v>0.9088232797652929</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9754083990071372</v>
+        <v>0.9737980983644584</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>242</v>
@@ -8260,19 +8260,19 @@
         <v>233884</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>227930</v>
+        <v>228979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>236775</v>
+        <v>236789</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9835955916711371</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9585568122893073</v>
+        <v>0.9629647818223009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9957516185919291</v>
+        <v>0.9958105027118893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>444</v>
@@ -8281,19 +8281,19 @@
         <v>445518</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>435029</v>
+        <v>435144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>452145</v>
+        <v>451466</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9675888248053904</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9448099237867635</v>
+        <v>0.945058544368743</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9819824900688029</v>
+        <v>0.9805069676689826</v>
       </c>
     </row>
     <row r="15">
@@ -8385,19 +8385,19 @@
         <v>3801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8660</v>
+        <v>9712</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01286511498820418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003406120200187746</v>
+        <v>0.003413407017126884</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02931175574001002</v>
+        <v>0.03287214086325167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -8406,19 +8406,19 @@
         <v>5608</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1968</v>
+        <v>1925</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12001</v>
+        <v>11051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01953794402924801</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006856337465392549</v>
+        <v>0.006705621632618394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04180825684767823</v>
+        <v>0.03849874565493833</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -8427,19 +8427,19 @@
         <v>9409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4473</v>
+        <v>4702</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16254</v>
+        <v>15860</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0161534451272721</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007679103377664609</v>
+        <v>0.008071920472794961</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02790353579273026</v>
+        <v>0.02722782753318717</v>
       </c>
     </row>
     <row r="17">
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4788</v>
+        <v>5208</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003542328940636472</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01620640211098546</v>
+        <v>0.01762725327094162</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5252</v>
+        <v>6001</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.00179669047959697</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.009015635254128939</v>
+        <v>0.01030303833980006</v>
       </c>
     </row>
     <row r="19">
@@ -8566,19 +8566,19 @@
         <v>2928</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9051</v>
+        <v>8074</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009910479283969131</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003035924994294078</v>
+        <v>0.00300408598587429</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03063455429031438</v>
+        <v>0.02732680281991446</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -8587,19 +8587,19 @@
         <v>6406</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2610</v>
+        <v>2688</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13649</v>
+        <v>13633</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02231753822281158</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00909406754413177</v>
+        <v>0.009362785414958812</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04754836517753339</v>
+        <v>0.04749489419387117</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -8608,19 +8608,19 @@
         <v>9334</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4372</v>
+        <v>4432</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16874</v>
+        <v>18102</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01602460353244614</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007505713905905803</v>
+        <v>0.00760801556821065</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02896918172351135</v>
+        <v>0.03107625501197518</v>
       </c>
     </row>
     <row r="20">
@@ -8637,19 +8637,19 @@
         <v>287670</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280590</v>
+        <v>280594</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>291701</v>
+        <v>291683</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9736820767871902</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9497170917257421</v>
+        <v>0.9497297273114514</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9873236300391225</v>
+        <v>0.9872622912838489</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>271</v>
@@ -8658,19 +8658,19 @@
         <v>275036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266933</v>
+        <v>266495</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>280526</v>
+        <v>281342</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9581445177479404</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9299134906319128</v>
+        <v>0.9283907366328989</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9772687508298187</v>
+        <v>0.9801123786156793</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>543</v>
@@ -8679,19 +8679,19 @@
         <v>562707</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>552670</v>
+        <v>552862</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>570251</v>
+        <v>570086</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9660252608606847</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9487939674541688</v>
+        <v>0.9491233476849698</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9789768682559336</v>
+        <v>0.9786929942629026</v>
       </c>
     </row>
     <row r="21">
@@ -8783,19 +8783,19 @@
         <v>4457</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10681</v>
+        <v>11240</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02659788647478825</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005968996267453736</v>
+        <v>0.00606421466391813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0637458268201493</v>
+        <v>0.06708345115895556</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7091</v>
+        <v>6375</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.015736147271103</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05694393662694057</v>
+        <v>0.0511915419663319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -8825,19 +8825,19 @@
         <v>6416</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2473</v>
+        <v>2487</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13636</v>
+        <v>13446</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02196702814109688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008465760932980328</v>
+        <v>0.008513206461748638</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04668563729416478</v>
+        <v>0.04603709396707845</v>
       </c>
     </row>
     <row r="23">
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5652</v>
+        <v>6399</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006658659265109548</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03373238781293301</v>
+        <v>0.038190462802431</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5470</v>
+        <v>5389</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008711178704343571</v>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04392862068544036</v>
+        <v>0.04327936522756819</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7670</v>
+        <v>7698</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007533742580221324</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02625944715015657</v>
+        <v>0.02635612343873738</v>
       </c>
     </row>
     <row r="24">
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7403</v>
+        <v>7367</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01283580229275133</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04418181508175287</v>
+        <v>0.04396703449336027</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6517</v>
+        <v>7666</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007363310189752311</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02231140862635349</v>
+        <v>0.02624638690204139</v>
       </c>
     </row>
     <row r="25">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5648</v>
+        <v>5653</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006658659265109548</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03370732761792793</v>
+        <v>0.03373766332161019</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6862</v>
+        <v>7204</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01650214845432669</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.055101666627101</v>
+        <v>0.05784754402471309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -9030,19 +9030,19 @@
         <v>3171</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8586</v>
+        <v>9295</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01085539084645898</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003503416230274729</v>
+        <v>0.003498397773316005</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02939734537261573</v>
+        <v>0.0318229409313923</v>
       </c>
     </row>
     <row r="26">
@@ -9059,19 +9059,19 @@
         <v>158713</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>150077</v>
+        <v>150802</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>163300</v>
+        <v>163399</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9472489927022413</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8957113734507467</v>
+        <v>0.9000362456506289</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9746258720778007</v>
+        <v>0.9752195965348884</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>108</v>
@@ -9080,19 +9080,19 @@
         <v>119427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>113854</v>
+        <v>113443</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>123429</v>
+        <v>122606</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9590505255702267</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9143022108916267</v>
+        <v>0.9109976651795993</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9911897189190031</v>
+        <v>0.9845809735297607</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>248</v>
@@ -9101,19 +9101,19 @@
         <v>278139</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>269640</v>
+        <v>268869</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>284327</v>
+        <v>284257</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9522805282424706</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9231795649463923</v>
+        <v>0.9205420190838617</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9734659520524354</v>
+        <v>0.9732252395089628</v>
       </c>
     </row>
     <row r="27">
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5280</v>
+        <v>5126</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01038229907836279</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0534509740855992</v>
+        <v>0.05189343565370626</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -9229,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6640</v>
+        <v>6660</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05824238589690895</v>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1766809946768094</v>
+        <v>0.1772075741119753</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -9247,19 +9247,19 @@
         <v>3214</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8481</v>
+        <v>8577</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02357274884345221</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00748537993695363</v>
+        <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06219230736410836</v>
+        <v>0.06289753857890225</v>
       </c>
     </row>
     <row r="29">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4919</v>
+        <v>5903</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0114607171182578</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04979455767406698</v>
+        <v>0.05976210380376495</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6463</v>
+        <v>6403</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02800686062032242</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1719614842591186</v>
+        <v>0.1703634456902193</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6796</v>
+        <v>6778</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01602090681238452</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04983961151284509</v>
+        <v>0.04970761947224756</v>
       </c>
     </row>
     <row r="30">
@@ -9394,19 +9394,19 @@
         <v>3497</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10436</v>
+        <v>9210</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03539969798286584</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01158516676833007</v>
+        <v>0.01156937876448583</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1056442531824878</v>
+        <v>0.09323376538546602</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6869</v>
+        <v>6158</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03309863352840119</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1827859713073097</v>
+        <v>0.1638556023841211</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -9436,19 +9436,19 @@
         <v>4741</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11634</v>
+        <v>11526</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03476551453042197</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008724129893815939</v>
+        <v>0.008666602100055031</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08531646835789476</v>
+        <v>0.08452475153306377</v>
       </c>
     </row>
     <row r="32">
@@ -9465,19 +9465,19 @@
         <v>93127</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>86575</v>
+        <v>86213</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>96585</v>
+        <v>96593</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9427572858205135</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8764368756337232</v>
+        <v>0.8727677870323028</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9777673369257571</v>
+        <v>0.9778526050281038</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>29</v>
@@ -9486,19 +9486,19 @@
         <v>33097</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27633</v>
+        <v>28264</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>36413</v>
+        <v>36519</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8806521199543674</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7352723432492884</v>
+        <v>0.7520734996318493</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9689065677585574</v>
+        <v>0.9717046484362585</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>112</v>
@@ -9507,19 +9507,19 @@
         <v>126223</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>117643</v>
+        <v>118366</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>130910</v>
+        <v>131675</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9256408298137413</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.862719562470302</v>
+        <v>0.8680193608729915</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.960012545309164</v>
+        <v>0.9656201565239262</v>
       </c>
     </row>
     <row r="33">
@@ -9624,19 +9624,19 @@
         <v>4011</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>994</v>
+        <v>967</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8895</v>
+        <v>9530</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1387987586464522</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03439485092074127</v>
+        <v>0.03348231781339195</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3078321369249772</v>
+        <v>0.3298118873469522</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -9645,19 +9645,19 @@
         <v>4011</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8977</v>
+        <v>9214</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04585349118899994</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01121807180265852</v>
+        <v>0.01104552948446743</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1026327722339321</v>
+        <v>0.1053502343262504</v>
       </c>
     </row>
     <row r="35">
@@ -9721,19 +9721,19 @@
         <v>4012</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1025</v>
+        <v>993</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8973</v>
+        <v>9763</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06849335663182304</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01750007990369896</v>
+        <v>0.01695229111312667</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1532037935246191</v>
+        <v>0.1666937687123183</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -9755,19 +9755,19 @@
         <v>4012</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8826</v>
+        <v>9291</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04586592425815026</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01165260205676382</v>
+        <v>0.01139372576980092</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1009058056831872</v>
+        <v>0.1062218645748564</v>
       </c>
     </row>
     <row r="37">
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6822</v>
+        <v>6375</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0179349324861998</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1164676088508406</v>
+        <v>0.1088433758786576</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5277</v>
+        <v>5182</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01200995681097757</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0603303968455574</v>
+        <v>0.05924896948070586</v>
       </c>
     </row>
     <row r="38">
@@ -9847,19 +9847,19 @@
         <v>53508</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>48502</v>
+        <v>47691</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>56580</v>
+        <v>56643</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9135717108819772</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8281050434613216</v>
+        <v>0.8142630937615644</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9660266810954807</v>
+        <v>0.9670915334839986</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>21</v>
@@ -9868,19 +9868,19 @@
         <v>24884</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>20000</v>
+        <v>19365</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>27901</v>
+        <v>27928</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8612012413535478</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6921678630750231</v>
+        <v>0.6701881126530479</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9656051490792588</v>
+        <v>0.9665176821866081</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>71</v>
@@ -9889,19 +9889,19 @@
         <v>78392</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>71724</v>
+        <v>70364</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>83378</v>
+        <v>83134</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8962706277418723</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8200295222404367</v>
+        <v>0.8044851276953562</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9532689084451368</v>
+        <v>0.9504886201130716</v>
       </c>
     </row>
     <row r="39">
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5161</v>
+        <v>5275</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09885229969930226</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3070251408029741</v>
+        <v>0.3138303608733</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -10035,19 +10035,19 @@
         <v>3919</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>890</v>
+        <v>1155</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7937</v>
+        <v>8095</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.191954293087388</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04359660441982955</v>
+        <v>0.05658454454778716</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3888102434928104</v>
+        <v>0.3965368355374366</v>
       </c>
     </row>
     <row r="41">
@@ -10161,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>4649</v>
+        <v>4262</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05296062269834378</v>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2765424361520178</v>
+        <v>0.2535143219256186</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>3809</v>
+        <v>4655</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04361102979177045</v>
@@ -10204,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1865897171703074</v>
+        <v>0.2280465541346071</v>
       </c>
     </row>
     <row r="44">
@@ -10221,19 +10221,19 @@
         <v>14258</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9796</v>
+        <v>11142</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>16056</v>
+        <v>16090</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.848187077602354</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5827566863089894</v>
+        <v>0.6628182316719952</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9551160201515488</v>
+        <v>0.9571542621348098</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1</v>
@@ -10263,19 +10263,19 @@
         <v>15605</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>11324</v>
+        <v>11171</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>18701</v>
+        <v>18564</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7644346771208416</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5546936518526049</v>
+        <v>0.5472063066465397</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9160860628566405</v>
+        <v>0.90936704694612</v>
       </c>
     </row>
     <row r="45">
@@ -10367,19 +10367,19 @@
         <v>14703</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8581</v>
+        <v>8371</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>23355</v>
+        <v>24616</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01607745483341459</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.009382941421316571</v>
+        <v>0.009154262665777546</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02553920665527512</v>
+        <v>0.0269181008553952</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>20</v>
@@ -10388,19 +10388,19 @@
         <v>19795</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>12571</v>
+        <v>12712</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>30239</v>
+        <v>31842</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02512745956752934</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01595727952073083</v>
+        <v>0.01613630317624098</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03838400426542597</v>
+        <v>0.04041913087447328</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>35</v>
@@ -10409,19 +10409,19 @@
         <v>34498</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>24405</v>
+        <v>24919</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>46369</v>
+        <v>48395</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02026567164058536</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01433662397550021</v>
+        <v>0.0146387646450596</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02723923868663581</v>
+        <v>0.02842940445642232</v>
       </c>
     </row>
     <row r="47">
@@ -10438,19 +10438,19 @@
         <v>3303</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>9859</v>
+        <v>8958</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.003612006750138513</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.001148523975633267</v>
+        <v>0.001146011988096151</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01078050294770548</v>
+        <v>0.009795742289538271</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3</v>
@@ -10459,19 +10459,19 @@
         <v>3138</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8261</v>
+        <v>8410</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.003983087227987888</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001267708181285051</v>
+        <v>0.001267022928671072</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01048592207063676</v>
+        <v>0.01067490149586961</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6</v>
@@ -10480,19 +10480,19 @@
         <v>6441</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2247</v>
+        <v>2205</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>12919</v>
+        <v>14040</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.003783737654132757</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.001319883577649349</v>
+        <v>0.00129512676690558</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.007589511673920054</v>
+        <v>0.008247896192809427</v>
       </c>
     </row>
     <row r="48">
@@ -10509,19 +10509,19 @@
         <v>8264</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4063</v>
+        <v>4070</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>15429</v>
+        <v>16535</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.009037036164799003</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.004442568338353579</v>
+        <v>0.004450746026209327</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.01687117885905221</v>
+        <v>0.01808086919783664</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>0</v>
@@ -10543,19 +10543,19 @@
         <v>8264</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>4034</v>
+        <v>4061</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>15439</v>
+        <v>15661</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.004854821031833822</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.002369896337188996</v>
+        <v>0.002385747918279465</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.009069475045596215</v>
+        <v>0.009200206275182875</v>
       </c>
     </row>
     <row r="49">
@@ -10572,19 +10572,19 @@
         <v>15730</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>8800</v>
+        <v>8465</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>25988</v>
+        <v>25622</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.0172008199952493</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.009622895990424698</v>
+        <v>0.009256219572602125</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02841748010766924</v>
+        <v>0.02801780941593636</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>13</v>
@@ -10593,19 +10593,19 @@
         <v>13514</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>7379</v>
+        <v>7362</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>22879</v>
+        <v>21434</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01715480856874932</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.009366168106409981</v>
+        <v>0.009344708544005632</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02904175137508802</v>
+        <v>0.02720793947329427</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>27</v>
@@ -10614,19 +10614,19 @@
         <v>29244</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>20450</v>
+        <v>20278</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>41793</v>
+        <v>43885</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.01717952654453289</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01201331062896515</v>
+        <v>0.01191233471286872</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02455104679050973</v>
+        <v>0.02577999827261414</v>
       </c>
     </row>
     <row r="50">
@@ -10643,19 +10643,19 @@
         <v>872490</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>858413</v>
+        <v>857498</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>883643</v>
+        <v>883776</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9540726822563986</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.9386794844742131</v>
+        <v>0.9376790707506902</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9662682549637729</v>
+        <v>0.9664142737352484</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>735</v>
@@ -10664,19 +10664,19 @@
         <v>751345</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>738182</v>
+        <v>738571</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>761700</v>
+        <v>762707</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9537346446357334</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.9370259517213528</v>
+        <v>0.9375187956211957</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9668779280474794</v>
+        <v>0.9681561589165276</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1546</v>
@@ -10685,19 +10685,19 @@
         <v>1623834</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1604581</v>
+        <v>1603583</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1638593</v>
+        <v>1639275</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9539162431289152</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.9426060121706534</v>
+        <v>0.9420193060005052</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9625861022457696</v>
+        <v>0.9629864625735507</v>
       </c>
     </row>
     <row r="51">
